--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrut\Desktop\projects\WhatsTrendingInGeorgiaTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{94FBD0F9-4C25-4FC7-B69A-6005F3465DC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48578027-877F-4512-B459-E2915C3FD226}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" xr2:uid="{6AEFB085-5136-4352-84D3-D65215146723}"/>
   </bookViews>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205CEAD-97CE-4263-AF46-3DAD09182435}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1378,55 +1378,55 @@
     <hyperlink ref="A16" r:id="rId14" display="https://twitter.com/GTStudents" xr:uid="{932C54BD-BEEA-4142-A871-27F9593DF832}"/>
     <hyperlink ref="B16" r:id="rId15" display="https://twitter.com/gtstudents" xr:uid="{8DFD4384-1DCB-4FA0-8032-1F5AB23F87AB}"/>
     <hyperlink ref="A18" r:id="rId16" display="https://twitter.com/GTMBB" xr:uid="{FC6C5F00-0B7F-4B8D-A107-EF2A8C9F97A2}"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://twitter.com/GeorgiaTechFB" xr:uid="{56547748-DB1B-4127-96DE-8BCDA0535DA0}"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://twitter.com/GTFootball" xr:uid="{C17EE601-6DCE-4DFD-99B4-463AC322937C}"/>
-    <hyperlink ref="C20" r:id="rId19" display="https://twitter.com/GTFBRecruiting" xr:uid="{EC0B1AC4-5AD3-422E-8A04-0FDA6F6B09B7}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://twitter.com/GTAthletics" xr:uid="{6E3AA4C2-2636-443C-BA4C-C8D3D7A8D83C}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://twitter.com/GTBaseball" xr:uid="{2991BC05-D44D-45DA-BE04-8C37F45E5C91}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://twitter.com/GT_WTEN" xr:uid="{6C04C8D9-DFBA-4707-9FA3-9D257E5E2D72}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://twitter.com/GT_MTEN" xr:uid="{EFAB5B05-2D2A-415C-B31D-95EB30E4B7DF}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://twitter.com/GaTechSoftball" xr:uid="{45DEAFE5-D59D-4E17-8ACC-A50ED6098296}"/>
-    <hyperlink ref="A17" r:id="rId25" display="https://twitter.com/GTWBB" xr:uid="{8DF80302-C8B2-48C5-B976-E4F678A75139}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://twitter.com/GT_trackNfield" xr:uid="{8EEE5AA8-013F-4368-933F-58CEF7999737}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://twitter.com/GT_GOLF" xr:uid="{4556AC32-395D-4BF6-8342-EF53E0A04E12}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://twitter.com/GeorgiaTechBand" xr:uid="{87007149-D55B-4331-B0DF-9A01C24178F4}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://twitter.com/GTCheerleading" xr:uid="{2E783902-1BA7-4046-9A4B-637196263047}"/>
-    <hyperlink ref="C29" r:id="rId30" display="https://twitter.com/gtcheerleading" xr:uid="{FAC85AB8-FECC-43CE-AEFD-057C9D23B87B}"/>
-    <hyperlink ref="A30" r:id="rId31" display="https://twitter.com/GTGoldrush" xr:uid="{E41B038A-DCB7-4EDD-B156-4B81333A964A}"/>
-    <hyperlink ref="C30" r:id="rId32" display="https://twitter.com/gtgoldrush" xr:uid="{A66AF118-C798-4A78-BEE7-9C2CC0556D68}"/>
-    <hyperlink ref="A32" r:id="rId33" display="https://twitter.com/Buzz_GT" xr:uid="{6FD003A3-8CEB-4A5D-BE12-E5E0EED72424}"/>
-    <hyperlink ref="A33" r:id="rId34" display="https://twitter.com/GeorgiaTechMBA" xr:uid="{038196A7-B13C-4632-AEFB-A44744203D40}"/>
-    <hyperlink ref="A34" r:id="rId35" display="https://twitter.com/georgiatechbsch" xr:uid="{A74680B9-64AD-41B0-B659-E071E1CF8A7A}"/>
-    <hyperlink ref="B34" r:id="rId36" display="https://twitter.com/GeorgiaTech" xr:uid="{4BC41AA3-0EBC-4553-93B8-E67EF004BF52}"/>
-    <hyperlink ref="A35" r:id="rId37" display="https://twitter.com/GatechEsports" xr:uid="{6C4B2269-932B-4F4C-B9F2-1B17E9980BB5}"/>
-    <hyperlink ref="A36" r:id="rId38" display="https://twitter.com/GTTribe" xr:uid="{2B1A8963-7C52-415F-B6DC-F54D54B1A9F0}"/>
-    <hyperlink ref="A37" r:id="rId39" display="https://twitter.com/GaTech_Hotel" xr:uid="{64B702EF-0E1E-4564-A727-E8B5D1CACCE1}"/>
-    <hyperlink ref="A38" r:id="rId40" display="https://twitter.com/GTDining" xr:uid="{E995B82A-1F41-4435-A38D-8A67331E9E95}"/>
-    <hyperlink ref="A39" r:id="rId41" display="https://twitter.com/GTClough" xr:uid="{36F7D248-CD61-4F2E-92D8-C7C138CDD149}"/>
-    <hyperlink ref="A40" r:id="rId42" display="https://twitter.com/GTLibrary" xr:uid="{BB5CCF8E-AA2F-4CD2-96F3-B93F78AEE73A}"/>
-    <hyperlink ref="A41" r:id="rId43" display="https://twitter.com/gt_park_trans" xr:uid="{1D70EAFB-28E5-49D1-A197-F9BF0921753F}"/>
-    <hyperlink ref="A42" r:id="rId44" display="https://twitter.com/Gatechoit" xr:uid="{7F189D08-86BA-41FE-B976-4AE27B71E9BB}"/>
-    <hyperlink ref="A43" r:id="rId45" display="https://twitter.com/GTaerospace" xr:uid="{829B78A5-4E35-4F34-A3C3-B706BB17BD4C}"/>
-    <hyperlink ref="A44" r:id="rId46" display="https://twitter.com/MEGeorgiaTech" xr:uid="{4166CD7C-D9D3-4682-96D2-F34092E4FD7B}"/>
-    <hyperlink ref="A45" r:id="rId47" display="https://twitter.com/GaTechPD" xr:uid="{540CBE08-E888-4B9C-8F16-04161FF4963A}"/>
-    <hyperlink ref="A46" r:id="rId48" display="https://twitter.com/GTPDalerts" xr:uid="{4EB8381F-36D1-4B28-800D-B8C2457E1B7F}"/>
-    <hyperlink ref="A47" r:id="rId49" display="https://twitter.com/TechHSOC" xr:uid="{9BA15847-7623-4D83-8758-68932F7F6FEC}"/>
-    <hyperlink ref="A52" r:id="rId50" display="https://twitter.com/GTSAA" xr:uid="{F3B184A1-912C-423D-BAE8-F94476B1652B}"/>
-    <hyperlink ref="A53" r:id="rId51" display="https://twitter.com/GATechBookstore" xr:uid="{6BEB8B4F-BA78-4280-95C7-9D2FA617681E}"/>
-    <hyperlink ref="A54" r:id="rId52" display="https://twitter.com/gatechsga" xr:uid="{27F8AF77-3A33-4248-8FDE-A68987A37CE7}"/>
-    <hyperlink ref="A55" r:id="rId53" display="https://twitter.com/GTOMSCS" xr:uid="{5EEA43F2-AA32-4DF7-A8F2-74B8559F9273}"/>
-    <hyperlink ref="A56" r:id="rId54" display="https://twitter.com/CRCatGT" xr:uid="{F633B42E-13B5-4981-A273-AD747BD5334A}"/>
-    <hyperlink ref="A57" r:id="rId55" display="https://twitter.com/HealthyGT" xr:uid="{7FD53303-0C6E-4252-876F-CD811D90D620}"/>
-    <hyperlink ref="A58" r:id="rId56" display="https://twitter.com/GaTechHousing" xr:uid="{6FC8916B-FFD4-4057-B932-9B3A4EC776B7}"/>
-    <hyperlink ref="A59" r:id="rId57" display="https://twitter.com/GaTechLEAD" xr:uid="{AEBD5EA0-1130-4C1B-83ED-5C3BCB5B0634}"/>
-    <hyperlink ref="A60" r:id="rId58" display="https://twitter.com/GTNSTP" xr:uid="{FAC5856F-C9B1-4D58-AAA7-DDD0DDFF2E24}"/>
-    <hyperlink ref="A61" r:id="rId59" display="https://twitter.com/GT_Facilities" xr:uid="{7CB8D65E-1111-435D-8D92-6D6EB48624C0}"/>
-    <hyperlink ref="A62" r:id="rId60" display="https://twitter.com/GTCounseling" xr:uid="{8B1FA2B8-5BB9-4CE1-8888-2D9E7121E047}"/>
-    <hyperlink ref="A63" r:id="rId61" display="https://twitter.com/GT_CHEM" xr:uid="{628C8982-B30A-476D-998C-98F53751D17D}"/>
-    <hyperlink ref="A64" r:id="rId62" display="https://twitter.com/GTStudentCenter" xr:uid="{CFF373EE-98C2-4FE2-9B7A-57307C1115F8}"/>
-    <hyperlink ref="A65" r:id="rId63" display="https://twitter.com/GATECH_DesignIT" xr:uid="{659DD449-363A-41E8-89C1-9CED98644EC2}"/>
-    <hyperlink ref="A66" r:id="rId64" display="https://twitter.com/TEDxGeorgiaTech" xr:uid="{7F4F14D5-2E51-41E0-A246-BCC3F8E21B20}"/>
-    <hyperlink ref="A67" r:id="rId65" display="https://twitter.com/GTIndiaClub" xr:uid="{46C3D646-7101-42BA-80A6-EDA0BFF074EC}"/>
+    <hyperlink ref="C20" r:id="rId17" display="https://twitter.com/GTFBRecruiting" xr:uid="{EC0B1AC4-5AD3-422E-8A04-0FDA6F6B09B7}"/>
+    <hyperlink ref="A21" r:id="rId18" display="https://twitter.com/GTAthletics" xr:uid="{6E3AA4C2-2636-443C-BA4C-C8D3D7A8D83C}"/>
+    <hyperlink ref="A22" r:id="rId19" display="https://twitter.com/GTBaseball" xr:uid="{2991BC05-D44D-45DA-BE04-8C37F45E5C91}"/>
+    <hyperlink ref="A23" r:id="rId20" display="https://twitter.com/GT_WTEN" xr:uid="{6C04C8D9-DFBA-4707-9FA3-9D257E5E2D72}"/>
+    <hyperlink ref="A24" r:id="rId21" display="https://twitter.com/GT_MTEN" xr:uid="{EFAB5B05-2D2A-415C-B31D-95EB30E4B7DF}"/>
+    <hyperlink ref="A25" r:id="rId22" display="https://twitter.com/GaTechSoftball" xr:uid="{45DEAFE5-D59D-4E17-8ACC-A50ED6098296}"/>
+    <hyperlink ref="A17" r:id="rId23" display="https://twitter.com/GTWBB" xr:uid="{8DF80302-C8B2-48C5-B976-E4F678A75139}"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://twitter.com/GT_trackNfield" xr:uid="{8EEE5AA8-013F-4368-933F-58CEF7999737}"/>
+    <hyperlink ref="A28" r:id="rId25" display="https://twitter.com/GeorgiaTechBand" xr:uid="{87007149-D55B-4331-B0DF-9A01C24178F4}"/>
+    <hyperlink ref="A29" r:id="rId26" display="https://twitter.com/GTCheerleading" xr:uid="{2E783902-1BA7-4046-9A4B-637196263047}"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://twitter.com/gtcheerleading" xr:uid="{FAC85AB8-FECC-43CE-AEFD-057C9D23B87B}"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://twitter.com/GTGoldrush" xr:uid="{E41B038A-DCB7-4EDD-B156-4B81333A964A}"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://twitter.com/gtgoldrush" xr:uid="{A66AF118-C798-4A78-BEE7-9C2CC0556D68}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://twitter.com/Buzz_GT" xr:uid="{6FD003A3-8CEB-4A5D-BE12-E5E0EED72424}"/>
+    <hyperlink ref="A33" r:id="rId31" display="https://twitter.com/GeorgiaTechMBA" xr:uid="{038196A7-B13C-4632-AEFB-A44744203D40}"/>
+    <hyperlink ref="A34" r:id="rId32" display="https://twitter.com/georgiatechbsch" xr:uid="{A74680B9-64AD-41B0-B659-E071E1CF8A7A}"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://twitter.com/GeorgiaTech" xr:uid="{4BC41AA3-0EBC-4553-93B8-E67EF004BF52}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://twitter.com/GatechEsports" xr:uid="{6C4B2269-932B-4F4C-B9F2-1B17E9980BB5}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://twitter.com/GTTribe" xr:uid="{2B1A8963-7C52-415F-B6DC-F54D54B1A9F0}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://twitter.com/GaTech_Hotel" xr:uid="{64B702EF-0E1E-4564-A727-E8B5D1CACCE1}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://twitter.com/GTDining" xr:uid="{E995B82A-1F41-4435-A38D-8A67331E9E95}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://twitter.com/GTClough" xr:uid="{36F7D248-CD61-4F2E-92D8-C7C138CDD149}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://twitter.com/GTLibrary" xr:uid="{BB5CCF8E-AA2F-4CD2-96F3-B93F78AEE73A}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://twitter.com/gt_park_trans" xr:uid="{1D70EAFB-28E5-49D1-A197-F9BF0921753F}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://twitter.com/Gatechoit" xr:uid="{7F189D08-86BA-41FE-B976-4AE27B71E9BB}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://twitter.com/GTaerospace" xr:uid="{829B78A5-4E35-4F34-A3C3-B706BB17BD4C}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://twitter.com/MEGeorgiaTech" xr:uid="{4166CD7C-D9D3-4682-96D2-F34092E4FD7B}"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://twitter.com/GaTechPD" xr:uid="{540CBE08-E888-4B9C-8F16-04161FF4963A}"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://twitter.com/GTPDalerts" xr:uid="{4EB8381F-36D1-4B28-800D-B8C2457E1B7F}"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://twitter.com/TechHSOC" xr:uid="{9BA15847-7623-4D83-8758-68932F7F6FEC}"/>
+    <hyperlink ref="A52" r:id="rId47" display="https://twitter.com/GTSAA" xr:uid="{F3B184A1-912C-423D-BAE8-F94476B1652B}"/>
+    <hyperlink ref="A53" r:id="rId48" display="https://twitter.com/GATechBookstore" xr:uid="{6BEB8B4F-BA78-4280-95C7-9D2FA617681E}"/>
+    <hyperlink ref="A54" r:id="rId49" display="https://twitter.com/gatechsga" xr:uid="{27F8AF77-3A33-4248-8FDE-A68987A37CE7}"/>
+    <hyperlink ref="A55" r:id="rId50" display="https://twitter.com/GTOMSCS" xr:uid="{5EEA43F2-AA32-4DF7-A8F2-74B8559F9273}"/>
+    <hyperlink ref="A56" r:id="rId51" display="https://twitter.com/CRCatGT" xr:uid="{F633B42E-13B5-4981-A273-AD747BD5334A}"/>
+    <hyperlink ref="A57" r:id="rId52" display="https://twitter.com/HealthyGT" xr:uid="{7FD53303-0C6E-4252-876F-CD811D90D620}"/>
+    <hyperlink ref="A58" r:id="rId53" display="https://twitter.com/GaTechHousing" xr:uid="{6FC8916B-FFD4-4057-B932-9B3A4EC776B7}"/>
+    <hyperlink ref="A59" r:id="rId54" display="https://twitter.com/GaTechLEAD" xr:uid="{AEBD5EA0-1130-4C1B-83ED-5C3BCB5B0634}"/>
+    <hyperlink ref="A60" r:id="rId55" display="https://twitter.com/GTNSTP" xr:uid="{FAC5856F-C9B1-4D58-AAA7-DDD0DDFF2E24}"/>
+    <hyperlink ref="A61" r:id="rId56" display="https://twitter.com/GT_Facilities" xr:uid="{7CB8D65E-1111-435D-8D92-6D6EB48624C0}"/>
+    <hyperlink ref="A62" r:id="rId57" display="https://twitter.com/GTCounseling" xr:uid="{8B1FA2B8-5BB9-4CE1-8888-2D9E7121E047}"/>
+    <hyperlink ref="A63" r:id="rId58" display="https://twitter.com/GT_CHEM" xr:uid="{628C8982-B30A-476D-998C-98F53751D17D}"/>
+    <hyperlink ref="A64" r:id="rId59" display="https://twitter.com/GTStudentCenter" xr:uid="{CFF373EE-98C2-4FE2-9B7A-57307C1115F8}"/>
+    <hyperlink ref="A65" r:id="rId60" display="https://twitter.com/GATECH_DesignIT" xr:uid="{659DD449-363A-41E8-89C1-9CED98644EC2}"/>
+    <hyperlink ref="A66" r:id="rId61" display="https://twitter.com/TEDxGeorgiaTech" xr:uid="{7F4F14D5-2E51-41E0-A246-BCC3F8E21B20}"/>
+    <hyperlink ref="A67" r:id="rId62" display="https://twitter.com/GTIndiaClub" xr:uid="{46C3D646-7101-42BA-80A6-EDA0BFF074EC}"/>
+    <hyperlink ref="A27" r:id="rId63" display="https://twitter.com/GT_GOLF" xr:uid="{23966AFC-C2FB-42CC-AA8D-7411F0B0B336}"/>
+    <hyperlink ref="A20" r:id="rId64" display="https://twitter.com/GTFootball" xr:uid="{EC624DEF-EA2F-44BE-8136-F6BAE6CEFE14}"/>
+    <hyperlink ref="A19" r:id="rId65" display="https://twitter.com/GeorgiaTechFB" xr:uid="{B2A472D0-E7C6-48EF-83D6-056EE8BA3963}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId66"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrut\Desktop\projects\WhatsTrendingInGeorgiaTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48578027-877F-4512-B459-E2915C3FD226}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29180E-32A1-4347-8336-F715B28FA149}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" xr2:uid="{6AEFB085-5136-4352-84D3-D65215146723}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">Page Name </t>
   </si>
@@ -430,12 +430,54 @@
   <si>
     <t>Georgia Tech India Club is one of the largest student cultural organizations at Georgia Tech and in the South East. Follow us to learn more!</t>
   </si>
+  <si>
+    <t>georgiatech</t>
+  </si>
+  <si>
+    <t>sppgatech</t>
+  </si>
+  <si>
+    <t>gtcomputing</t>
+  </si>
+  <si>
+    <t>gatechengineers</t>
+  </si>
+  <si>
+    <t>gtalumni</t>
+  </si>
+  <si>
+    <t>gtwbb</t>
+  </si>
+  <si>
+    <t>#gtmbb</t>
+  </si>
+  <si>
+    <t>georgiatechfb</t>
+  </si>
+  <si>
+    <t>gtathletics</t>
+  </si>
+  <si>
+    <t>gt_baseball</t>
+  </si>
+  <si>
+    <t>gt_wten</t>
+  </si>
+  <si>
+    <t>gt_mten</t>
+  </si>
+  <si>
+    <t>gatechsoftball</t>
+  </si>
+  <si>
+    <t>gt_tracknfield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +511,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -491,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +555,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,15 +876,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205CEAD-97CE-4263-AF46-3DAD09182435}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.1796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="92.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
     <col min="4" max="4" width="45.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -850,12 +902,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -906,20 +961,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -938,20 +999,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -966,12 +1033,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -981,13 +1051,19 @@
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1001,52 +1077,70 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
